--- a/data/pca/factorExposure/factorExposure_2012-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-20.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01799151574821144</v>
+        <v>-0.02295373570321832</v>
       </c>
       <c r="C2">
-        <v>0.02773503983958808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02408901593650568</v>
+      </c>
+      <c r="D2">
+        <v>-0.004727892005696062</v>
+      </c>
+      <c r="E2">
+        <v>0.01822424605835883</v>
+      </c>
+      <c r="F2">
+        <v>0.004791150457536334</v>
+      </c>
+      <c r="G2">
+        <v>0.01566116267796409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06905668535067448</v>
+        <v>-0.07541073448169304</v>
       </c>
       <c r="C4">
-        <v>0.05874263184688272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03897335632660683</v>
+      </c>
+      <c r="D4">
+        <v>-0.07110404398293706</v>
+      </c>
+      <c r="E4">
+        <v>-0.002791761391575177</v>
+      </c>
+      <c r="F4">
+        <v>0.01849194240547834</v>
+      </c>
+      <c r="G4">
+        <v>-0.02534721561134895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0961033094365078</v>
+        <v>-0.1120236357153366</v>
       </c>
       <c r="C6">
-        <v>0.06420695160212571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04251058445385745</v>
+      </c>
+      <c r="D6">
+        <v>-0.0172880398976524</v>
+      </c>
+      <c r="E6">
+        <v>-0.005651059340438245</v>
+      </c>
+      <c r="F6">
+        <v>0.04545411128621053</v>
+      </c>
+      <c r="G6">
+        <v>0.01291904553006197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04442787292100563</v>
+        <v>-0.05403838003169375</v>
       </c>
       <c r="C7">
-        <v>0.0331336088587625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02457132818094811</v>
+      </c>
+      <c r="D7">
+        <v>-0.03382438973149518</v>
+      </c>
+      <c r="E7">
+        <v>0.02520173689443787</v>
+      </c>
+      <c r="F7">
+        <v>0.02704419708533119</v>
+      </c>
+      <c r="G7">
+        <v>-0.03789230451677656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03295308401274313</v>
+        <v>-0.03327883445518515</v>
       </c>
       <c r="C8">
-        <v>0.02647783212281538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.016520047115319</v>
+      </c>
+      <c r="D8">
+        <v>-0.03906530422277488</v>
+      </c>
+      <c r="E8">
+        <v>0.01276029011547541</v>
+      </c>
+      <c r="F8">
+        <v>0.04816917542788243</v>
+      </c>
+      <c r="G8">
+        <v>0.02535700921012425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06115946380230923</v>
+        <v>-0.06903335364750035</v>
       </c>
       <c r="C9">
-        <v>0.0450339429983359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02868016100459517</v>
+      </c>
+      <c r="D9">
+        <v>-0.07143372429309387</v>
+      </c>
+      <c r="E9">
+        <v>0.01818215565931192</v>
+      </c>
+      <c r="F9">
+        <v>0.03308676453619788</v>
+      </c>
+      <c r="G9">
+        <v>-0.006324167036355305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02982160353740772</v>
+        <v>-0.04023556540298232</v>
       </c>
       <c r="C10">
-        <v>0.03665716810623105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03663371311244669</v>
+      </c>
+      <c r="D10">
+        <v>0.1837081439513433</v>
+      </c>
+      <c r="E10">
+        <v>0.04826119978618194</v>
+      </c>
+      <c r="F10">
+        <v>0.03075354278554934</v>
+      </c>
+      <c r="G10">
+        <v>-0.01811466390290657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06967739163403282</v>
+        <v>-0.07608496717879809</v>
       </c>
       <c r="C11">
-        <v>0.05265515180885535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03099812458917183</v>
+      </c>
+      <c r="D11">
+        <v>-0.06718897990603424</v>
+      </c>
+      <c r="E11">
+        <v>-0.004344385076891808</v>
+      </c>
+      <c r="F11">
+        <v>0.03651125894179649</v>
+      </c>
+      <c r="G11">
+        <v>-0.0389798683064848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05235715884317804</v>
+        <v>-0.06053079499991842</v>
       </c>
       <c r="C12">
-        <v>0.05079189257188987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03463168315772358</v>
+      </c>
+      <c r="D12">
+        <v>-0.04998785097051298</v>
+      </c>
+      <c r="E12">
+        <v>0.01241078843452907</v>
+      </c>
+      <c r="F12">
+        <v>0.02687027132632576</v>
+      </c>
+      <c r="G12">
+        <v>-0.03233498804959466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05929858712300811</v>
+        <v>-0.0647120546953384</v>
       </c>
       <c r="C13">
-        <v>0.0517889988796801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03113691080641706</v>
+      </c>
+      <c r="D13">
+        <v>-0.05584169442850392</v>
+      </c>
+      <c r="E13">
+        <v>0.005383811481276789</v>
+      </c>
+      <c r="F13">
+        <v>0.01470517301159039</v>
+      </c>
+      <c r="G13">
+        <v>-0.01596458100984411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03270187659009485</v>
+        <v>-0.03819617071695268</v>
       </c>
       <c r="C14">
-        <v>0.02844675276640647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02173004889883617</v>
+      </c>
+      <c r="D14">
+        <v>-0.01133731939757069</v>
+      </c>
+      <c r="E14">
+        <v>0.02175480644640785</v>
+      </c>
+      <c r="F14">
+        <v>0.01901687452966355</v>
+      </c>
+      <c r="G14">
+        <v>0.01240832247030269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03937748700785088</v>
+        <v>-0.04048957855939404</v>
       </c>
       <c r="C15">
-        <v>0.01462433159383834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005448585478852525</v>
+      </c>
+      <c r="D15">
+        <v>-0.01936051706211149</v>
+      </c>
+      <c r="E15">
+        <v>0.04249626401380455</v>
+      </c>
+      <c r="F15">
+        <v>-0.004057338498421939</v>
+      </c>
+      <c r="G15">
+        <v>0.02198323014519315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05796372154889144</v>
+        <v>-0.06175408945183261</v>
       </c>
       <c r="C16">
-        <v>0.04421774570346875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02705601769326588</v>
+      </c>
+      <c r="D16">
+        <v>-0.05910008977071492</v>
+      </c>
+      <c r="E16">
+        <v>0.0008505418636205249</v>
+      </c>
+      <c r="F16">
+        <v>0.02949105519743095</v>
+      </c>
+      <c r="G16">
+        <v>-0.02326678176129932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06226186352122901</v>
+        <v>-0.06166720280728148</v>
       </c>
       <c r="C20">
-        <v>0.03639071985319446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01759228096726852</v>
+      </c>
+      <c r="D20">
+        <v>-0.05004743110612844</v>
+      </c>
+      <c r="E20">
+        <v>0.02104451901352751</v>
+      </c>
+      <c r="F20">
+        <v>0.02542934540832678</v>
+      </c>
+      <c r="G20">
+        <v>-0.02308538373888327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02691244662632318</v>
+        <v>-0.02369004666247709</v>
       </c>
       <c r="C21">
-        <v>0.0006784861458089798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01017027737787093</v>
+      </c>
+      <c r="D21">
+        <v>-0.03790944084648812</v>
+      </c>
+      <c r="E21">
+        <v>0.08991550727651634</v>
+      </c>
+      <c r="F21">
+        <v>-0.01185080243873426</v>
+      </c>
+      <c r="G21">
+        <v>0.015342805618725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06881155140093345</v>
+        <v>-0.0700771467416913</v>
       </c>
       <c r="C22">
-        <v>0.07484248152462435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04567084212510954</v>
+      </c>
+      <c r="D22">
+        <v>-0.109331033022953</v>
+      </c>
+      <c r="E22">
+        <v>0.5995798651484157</v>
+      </c>
+      <c r="F22">
+        <v>-0.1684625942184718</v>
+      </c>
+      <c r="G22">
+        <v>0.04714394443266743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06956664798739273</v>
+        <v>-0.07078324980402276</v>
       </c>
       <c r="C23">
-        <v>0.07437025639297111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04510846556281253</v>
+      </c>
+      <c r="D23">
+        <v>-0.1104762467593412</v>
+      </c>
+      <c r="E23">
+        <v>0.5987356984456761</v>
+      </c>
+      <c r="F23">
+        <v>-0.1681364661798407</v>
+      </c>
+      <c r="G23">
+        <v>0.04868960959269435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06344711344842621</v>
+        <v>-0.07245936161743231</v>
       </c>
       <c r="C24">
-        <v>0.05048566314939779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.0317049968757108</v>
+      </c>
+      <c r="D24">
+        <v>-0.06652107685325796</v>
+      </c>
+      <c r="E24">
+        <v>0.01004395145505201</v>
+      </c>
+      <c r="F24">
+        <v>0.04354823498274506</v>
+      </c>
+      <c r="G24">
+        <v>-0.01561249307013383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06469449165752178</v>
+        <v>-0.07141559194377001</v>
       </c>
       <c r="C25">
-        <v>0.05710491714918467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03779112629856111</v>
+      </c>
+      <c r="D25">
+        <v>-0.06425420862527834</v>
+      </c>
+      <c r="E25">
+        <v>0.009895740983818868</v>
+      </c>
+      <c r="F25">
+        <v>0.03962039091579326</v>
+      </c>
+      <c r="G25">
+        <v>-0.01467338218397086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03830976396614787</v>
+        <v>-0.04002428835468016</v>
       </c>
       <c r="C26">
-        <v>0.01297116357150608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005015866756981662</v>
+      </c>
+      <c r="D26">
+        <v>-0.01966848627341859</v>
+      </c>
+      <c r="E26">
+        <v>0.03698107283913978</v>
+      </c>
+      <c r="F26">
+        <v>0.01522945581710367</v>
+      </c>
+      <c r="G26">
+        <v>-0.0168324563877664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05551541547888973</v>
+        <v>-0.07645830207742788</v>
       </c>
       <c r="C28">
-        <v>0.07661351083029334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07527007133095669</v>
+      </c>
+      <c r="D28">
+        <v>0.3227552360661129</v>
+      </c>
+      <c r="E28">
+        <v>0.04972861293207421</v>
+      </c>
+      <c r="F28">
+        <v>0.05345475960029499</v>
+      </c>
+      <c r="G28">
+        <v>0.02932303696068389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03599726921655809</v>
+        <v>-0.04204765323696513</v>
       </c>
       <c r="C29">
-        <v>0.0313532931122702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02433582945982599</v>
+      </c>
+      <c r="D29">
+        <v>-0.009242418808265712</v>
+      </c>
+      <c r="E29">
+        <v>0.04660436950664321</v>
+      </c>
+      <c r="F29">
+        <v>0.01039437436711736</v>
+      </c>
+      <c r="G29">
+        <v>-0.00349393674332575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1136607943732963</v>
+        <v>-0.1281355842563438</v>
       </c>
       <c r="C30">
-        <v>0.09551920169604756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06385084445697174</v>
+      </c>
+      <c r="D30">
+        <v>-0.1059331334599998</v>
+      </c>
+      <c r="E30">
+        <v>0.04460808625642378</v>
+      </c>
+      <c r="F30">
+        <v>0.004832469935067549</v>
+      </c>
+      <c r="G30">
+        <v>-0.003334856356382796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03723226903488649</v>
+        <v>-0.04265983604440773</v>
       </c>
       <c r="C31">
-        <v>0.02418484082266896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01509896216731478</v>
+      </c>
+      <c r="D31">
+        <v>-0.03032756888195997</v>
+      </c>
+      <c r="E31">
+        <v>0.0200965300021217</v>
+      </c>
+      <c r="F31">
+        <v>0.01669642356750894</v>
+      </c>
+      <c r="G31">
+        <v>-0.01822070304688235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03195895215505402</v>
+        <v>-0.03340331405279592</v>
       </c>
       <c r="C32">
-        <v>0.02752696816426018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01707920868071687</v>
+      </c>
+      <c r="D32">
+        <v>-0.01411589941360912</v>
+      </c>
+      <c r="E32">
+        <v>0.06305229865540833</v>
+      </c>
+      <c r="F32">
+        <v>-0.01525237883760394</v>
+      </c>
+      <c r="G32">
+        <v>0.0075913231281002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07599927587357988</v>
+        <v>-0.08702847352911657</v>
       </c>
       <c r="C33">
-        <v>0.05052131742206326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03206225225869053</v>
+      </c>
+      <c r="D33">
+        <v>-0.06203068455396638</v>
+      </c>
+      <c r="E33">
+        <v>0.01605723276761504</v>
+      </c>
+      <c r="F33">
+        <v>0.002484639463480779</v>
+      </c>
+      <c r="G33">
+        <v>-0.02752171142532478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05085039607271663</v>
+        <v>-0.05650687934590938</v>
       </c>
       <c r="C34">
-        <v>0.03241419651808839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01832189041241906</v>
+      </c>
+      <c r="D34">
+        <v>-0.05744154388505499</v>
+      </c>
+      <c r="E34">
+        <v>0.005437608628023879</v>
+      </c>
+      <c r="F34">
+        <v>0.02889986447575504</v>
+      </c>
+      <c r="G34">
+        <v>-0.01451743565197244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03798095101448704</v>
+        <v>-0.04007900468650921</v>
       </c>
       <c r="C35">
-        <v>0.0139026089260224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.006241868748854621</v>
+      </c>
+      <c r="D35">
+        <v>-0.01133599550343591</v>
+      </c>
+      <c r="E35">
+        <v>0.03096747184849033</v>
+      </c>
+      <c r="F35">
+        <v>-0.006594340506142498</v>
+      </c>
+      <c r="G35">
+        <v>-0.01167600910258339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01835099242176214</v>
+        <v>-0.02259598262844723</v>
       </c>
       <c r="C36">
-        <v>0.01421895913290942</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.009157469637028428</v>
+      </c>
+      <c r="D36">
+        <v>-0.01946168906986595</v>
+      </c>
+      <c r="E36">
+        <v>0.03549751510601826</v>
+      </c>
+      <c r="F36">
+        <v>0.01466354044766543</v>
+      </c>
+      <c r="G36">
+        <v>-0.01650143894752814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03748095032430576</v>
+        <v>-0.04003072805409352</v>
       </c>
       <c r="C38">
-        <v>0.01278083417471195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003276326244288973</v>
+      </c>
+      <c r="D38">
+        <v>-0.0114400533613601</v>
+      </c>
+      <c r="E38">
+        <v>0.06068251228007385</v>
+      </c>
+      <c r="F38">
+        <v>-0.02713057581271546</v>
+      </c>
+      <c r="G38">
+        <v>0.02757118829760832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08765178875698826</v>
+        <v>-0.09956747093222809</v>
       </c>
       <c r="C39">
-        <v>0.07996085832750473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05331822086862497</v>
+      </c>
+      <c r="D39">
+        <v>-0.08517430835009014</v>
+      </c>
+      <c r="E39">
+        <v>-0.01455251234177396</v>
+      </c>
+      <c r="F39">
+        <v>0.0227457093610945</v>
+      </c>
+      <c r="G39">
+        <v>0.004328319891794938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06795137472782646</v>
+        <v>-0.07525773048019996</v>
       </c>
       <c r="C40">
-        <v>0.05857002899007926</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.04006414352154178</v>
+      </c>
+      <c r="D40">
+        <v>-0.007872653429247445</v>
+      </c>
+      <c r="E40">
+        <v>0.03309978863256644</v>
+      </c>
+      <c r="F40">
+        <v>-0.04056100637128541</v>
+      </c>
+      <c r="G40">
+        <v>0.04649275762095278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03788247051967401</v>
+        <v>-0.0419349270645142</v>
       </c>
       <c r="C41">
-        <v>0.01530100259671104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007362966442187057</v>
+      </c>
+      <c r="D41">
+        <v>-0.04208423737194737</v>
+      </c>
+      <c r="E41">
+        <v>0.00825383720766572</v>
+      </c>
+      <c r="F41">
+        <v>-0.01174370113446955</v>
+      </c>
+      <c r="G41">
+        <v>0.004297326651236123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03990259166444229</v>
+        <v>-0.04898987440561028</v>
       </c>
       <c r="C43">
-        <v>0.03600788234919813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02326845953423505</v>
+      </c>
+      <c r="D43">
+        <v>-0.02716669767294464</v>
+      </c>
+      <c r="E43">
+        <v>0.02083026453793939</v>
+      </c>
+      <c r="F43">
+        <v>0.008431289255529929</v>
+      </c>
+      <c r="G43">
+        <v>-0.01619740136987911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08873303157312701</v>
+        <v>-0.09006697360824693</v>
       </c>
       <c r="C44">
-        <v>0.09223219042957562</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06051827579033063</v>
+      </c>
+      <c r="D44">
+        <v>-0.06614447298240514</v>
+      </c>
+      <c r="E44">
+        <v>0.09143267365635893</v>
+      </c>
+      <c r="F44">
+        <v>0.05085025288905175</v>
+      </c>
+      <c r="G44">
+        <v>0.0005735010612889348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02792660751480807</v>
+        <v>-0.02841582243886202</v>
       </c>
       <c r="C46">
-        <v>0.01892951577553286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01171011454679598</v>
+      </c>
+      <c r="D46">
+        <v>-0.03342302368101171</v>
+      </c>
+      <c r="E46">
+        <v>0.02409165310366455</v>
+      </c>
+      <c r="F46">
+        <v>0.02117354032631782</v>
+      </c>
+      <c r="G46">
+        <v>0.00986411382058301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03011308055383031</v>
+        <v>-0.03265919091678016</v>
       </c>
       <c r="C47">
-        <v>0.02136876930915055</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01344459087476218</v>
+      </c>
+      <c r="D47">
+        <v>-0.01914454404206536</v>
+      </c>
+      <c r="E47">
+        <v>0.0481520998056303</v>
+      </c>
+      <c r="F47">
+        <v>0.01382192599525105</v>
+      </c>
+      <c r="G47">
+        <v>-0.02600411160246595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02724270170865704</v>
+        <v>-0.0316658638103101</v>
       </c>
       <c r="C48">
-        <v>0.01710858919348978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.0107313121316045</v>
+      </c>
+      <c r="D48">
+        <v>-0.02801017247709503</v>
+      </c>
+      <c r="E48">
+        <v>0.04370972113601553</v>
+      </c>
+      <c r="F48">
+        <v>0.01356923193031449</v>
+      </c>
+      <c r="G48">
+        <v>-0.007106260059575556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.156620581676901</v>
+        <v>-0.1772722691531113</v>
       </c>
       <c r="C49">
-        <v>0.09595165127378834</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05910250760457212</v>
+      </c>
+      <c r="D49">
+        <v>-0.009111358319973626</v>
+      </c>
+      <c r="E49">
+        <v>-0.1165329178656471</v>
+      </c>
+      <c r="F49">
+        <v>0.01214075594259083</v>
+      </c>
+      <c r="G49">
+        <v>-0.07621059001772168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03174204935282135</v>
+        <v>-0.03937606198204733</v>
       </c>
       <c r="C50">
-        <v>0.02572380465442045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02097901046158362</v>
+      </c>
+      <c r="D50">
+        <v>-0.0401084465901461</v>
+      </c>
+      <c r="E50">
+        <v>0.04576446768746702</v>
+      </c>
+      <c r="F50">
+        <v>0.02885297455907493</v>
+      </c>
+      <c r="G50">
+        <v>-0.01467191854214669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02460821708087766</v>
+        <v>-0.02638610199563179</v>
       </c>
       <c r="C51">
-        <v>0.01904058170487317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01211746758069947</v>
+      </c>
+      <c r="D51">
+        <v>-0.02494316146606159</v>
+      </c>
+      <c r="E51">
+        <v>0.01318969307029521</v>
+      </c>
+      <c r="F51">
+        <v>0.008028493576039634</v>
+      </c>
+      <c r="G51">
+        <v>0.006771092541615713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1421016958037846</v>
+        <v>-0.1601034199444903</v>
       </c>
       <c r="C53">
-        <v>0.1024573253767065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06874090549025397</v>
+      </c>
+      <c r="D53">
+        <v>-0.02318190043408224</v>
+      </c>
+      <c r="E53">
+        <v>-0.03124774961416445</v>
+      </c>
+      <c r="F53">
+        <v>0.03104575896308766</v>
+      </c>
+      <c r="G53">
+        <v>-0.02596057373663362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05141252188626845</v>
+        <v>-0.05591201962658939</v>
       </c>
       <c r="C54">
-        <v>0.02477959420870325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01138308466235438</v>
+      </c>
+      <c r="D54">
+        <v>-0.03825529852070115</v>
+      </c>
+      <c r="E54">
+        <v>0.04209457524285756</v>
+      </c>
+      <c r="F54">
+        <v>0.01269262900518493</v>
+      </c>
+      <c r="G54">
+        <v>-0.006202936910082536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09339945311165081</v>
+        <v>-0.1005158468304631</v>
       </c>
       <c r="C55">
-        <v>0.06371778591494608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04258105296516016</v>
+      </c>
+      <c r="D55">
+        <v>-0.03290625524924209</v>
+      </c>
+      <c r="E55">
+        <v>0.008202690142711123</v>
+      </c>
+      <c r="F55">
+        <v>0.03147161306709413</v>
+      </c>
+      <c r="G55">
+        <v>-0.007313424156444545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1371865567626208</v>
+        <v>-0.1589365304077831</v>
       </c>
       <c r="C56">
-        <v>0.1113418527609458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0769937496210685</v>
+      </c>
+      <c r="D56">
+        <v>-0.01841491485992476</v>
+      </c>
+      <c r="E56">
+        <v>-0.03570937019478188</v>
+      </c>
+      <c r="F56">
+        <v>0.07145039793091673</v>
+      </c>
+      <c r="G56">
+        <v>-0.03725662302104587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1174343325645818</v>
+        <v>-0.1080868606242387</v>
       </c>
       <c r="C58">
-        <v>0.03313146366050848</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0003458405049676424</v>
+      </c>
+      <c r="D58">
+        <v>-0.05186569863091759</v>
+      </c>
+      <c r="E58">
+        <v>0.1816474061601378</v>
+      </c>
+      <c r="F58">
+        <v>0.05035154934378121</v>
+      </c>
+      <c r="G58">
+        <v>-0.03724752316603653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1075963780167508</v>
+        <v>-0.1472589581383646</v>
       </c>
       <c r="C59">
-        <v>0.0866914440196825</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08286582977541843</v>
+      </c>
+      <c r="D59">
+        <v>0.3498017729379069</v>
+      </c>
+      <c r="E59">
+        <v>0.04841223512355725</v>
+      </c>
+      <c r="F59">
+        <v>-0.02126812314525517</v>
+      </c>
+      <c r="G59">
+        <v>-0.00591024790174636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1824489265353238</v>
+        <v>-0.2125489766797873</v>
       </c>
       <c r="C60">
-        <v>0.1164603240849945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.0778324163210147</v>
+      </c>
+      <c r="D60">
+        <v>-0.01680164415372901</v>
+      </c>
+      <c r="E60">
+        <v>-0.07734084897194117</v>
+      </c>
+      <c r="F60">
+        <v>0.03640513390007252</v>
+      </c>
+      <c r="G60">
+        <v>0.03015841076447823</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0761265284323801</v>
+        <v>-0.08392596726706544</v>
       </c>
       <c r="C61">
-        <v>0.05886844847587742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03822827738872325</v>
+      </c>
+      <c r="D61">
+        <v>-0.06192906158689264</v>
+      </c>
+      <c r="E61">
+        <v>-0.01229912277352231</v>
+      </c>
+      <c r="F61">
+        <v>0.008127189476379994</v>
+      </c>
+      <c r="G61">
+        <v>-0.03339653659176391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1182851052032438</v>
+        <v>-0.1386981624350357</v>
       </c>
       <c r="C62">
-        <v>0.08348097340292544</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05823067930049533</v>
+      </c>
+      <c r="D62">
+        <v>-0.02877447001455847</v>
+      </c>
+      <c r="E62">
+        <v>-0.04865144525459088</v>
+      </c>
+      <c r="F62">
+        <v>0.03382102387862969</v>
+      </c>
+      <c r="G62">
+        <v>0.01131096912707844</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04724011305035083</v>
+        <v>-0.05106839215129513</v>
       </c>
       <c r="C63">
-        <v>0.02824352930583385</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01647530027275004</v>
+      </c>
+      <c r="D63">
+        <v>-0.03247381593483595</v>
+      </c>
+      <c r="E63">
+        <v>0.04579132799616993</v>
+      </c>
+      <c r="F63">
+        <v>0.01575827159803183</v>
+      </c>
+      <c r="G63">
+        <v>0.02569100401373809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.105001238685589</v>
+        <v>-0.1101438549949974</v>
       </c>
       <c r="C64">
-        <v>0.04512602508271985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02218060874272746</v>
+      </c>
+      <c r="D64">
+        <v>-0.049518553030029</v>
+      </c>
+      <c r="E64">
+        <v>0.03392957317703651</v>
+      </c>
+      <c r="F64">
+        <v>0.05117570258814323</v>
+      </c>
+      <c r="G64">
+        <v>0.01497714260025973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1068826206016403</v>
+        <v>-0.120657463150118</v>
       </c>
       <c r="C65">
-        <v>0.06338604632719572</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0410882065141329</v>
+      </c>
+      <c r="D65">
+        <v>-0.01959079244366777</v>
+      </c>
+      <c r="E65">
+        <v>-0.007653399590533945</v>
+      </c>
+      <c r="F65">
+        <v>0.06668642258256502</v>
+      </c>
+      <c r="G65">
+        <v>0.03854298418463217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1351512204240256</v>
+        <v>-0.1522911989049866</v>
       </c>
       <c r="C66">
-        <v>0.09062769895568712</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05631955309124705</v>
+      </c>
+      <c r="D66">
+        <v>-0.1197860567857349</v>
+      </c>
+      <c r="E66">
+        <v>-0.0494785539483566</v>
+      </c>
+      <c r="F66">
+        <v>0.04502955395771919</v>
+      </c>
+      <c r="G66">
+        <v>-0.02198034513286918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06923270257969985</v>
+        <v>-0.07376132812045723</v>
       </c>
       <c r="C67">
-        <v>0.02521854715392977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.0081933508079134</v>
+      </c>
+      <c r="D67">
+        <v>-0.02521566586440588</v>
+      </c>
+      <c r="E67">
+        <v>0.02778423761746518</v>
+      </c>
+      <c r="F67">
+        <v>-0.01153118145010537</v>
+      </c>
+      <c r="G67">
+        <v>0.0009158269427539566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0546217231410269</v>
+        <v>-0.0702053402245516</v>
       </c>
       <c r="C68">
-        <v>0.04951082132959867</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04765148618865861</v>
+      </c>
+      <c r="D68">
+        <v>0.2637622688191595</v>
+      </c>
+      <c r="E68">
+        <v>0.04886158314988247</v>
+      </c>
+      <c r="F68">
+        <v>0.01185270682561511</v>
+      </c>
+      <c r="G68">
+        <v>0.0005978005077431992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04710662943589627</v>
+        <v>-0.05097314733201843</v>
       </c>
       <c r="C69">
-        <v>0.02704318289841973</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01248783488105185</v>
+      </c>
+      <c r="D69">
+        <v>-0.03619485221767352</v>
+      </c>
+      <c r="E69">
+        <v>0.0155632894755042</v>
+      </c>
+      <c r="F69">
+        <v>0.005320960513210824</v>
+      </c>
+      <c r="G69">
+        <v>-0.0101830338009521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003419308999595555</v>
+        <v>-0.01035582863158511</v>
       </c>
       <c r="C70">
-        <v>-0.001841740700900606</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001520473272145344</v>
+      </c>
+      <c r="D70">
+        <v>0.0001586498413966132</v>
+      </c>
+      <c r="E70">
+        <v>-0.007948015908066127</v>
+      </c>
+      <c r="F70">
+        <v>-0.007625349620817892</v>
+      </c>
+      <c r="G70">
+        <v>0.002050465382083862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05675241633819173</v>
+        <v>-0.07380034732677145</v>
       </c>
       <c r="C71">
-        <v>0.04982108192647117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04828928825367886</v>
+      </c>
+      <c r="D71">
+        <v>0.3032389488971316</v>
+      </c>
+      <c r="E71">
+        <v>0.0483822866507761</v>
+      </c>
+      <c r="F71">
+        <v>0.02441581988912871</v>
+      </c>
+      <c r="G71">
+        <v>-0.006649686939034074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1284806303244626</v>
+        <v>-0.1498902672381177</v>
       </c>
       <c r="C72">
-        <v>0.07793432658412022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05113452033714472</v>
+      </c>
+      <c r="D72">
+        <v>-0.009309603515439099</v>
+      </c>
+      <c r="E72">
+        <v>-0.106098473035111</v>
+      </c>
+      <c r="F72">
+        <v>-0.139063619350489</v>
+      </c>
+      <c r="G72">
+        <v>0.1226701772438441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2436672435635909</v>
+        <v>-0.2691880454197685</v>
       </c>
       <c r="C73">
-        <v>0.1473218653284514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.09235248076537447</v>
+      </c>
+      <c r="D73">
+        <v>-0.0583498565527476</v>
+      </c>
+      <c r="E73">
+        <v>-0.1882053141050899</v>
+      </c>
+      <c r="F73">
+        <v>0.07000511353758007</v>
+      </c>
+      <c r="G73">
+        <v>-0.1664582725617427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07654775443422165</v>
+        <v>-0.08845663261798115</v>
       </c>
       <c r="C74">
-        <v>0.08036424954011129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06066541719728495</v>
+      </c>
+      <c r="D74">
+        <v>-0.03470708644934837</v>
+      </c>
+      <c r="E74">
+        <v>-0.001540297296754533</v>
+      </c>
+      <c r="F74">
+        <v>-0.0004461540523233097</v>
+      </c>
+      <c r="G74">
+        <v>-0.03115484384009063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09778944440509907</v>
+        <v>-0.1086009633316317</v>
       </c>
       <c r="C75">
-        <v>0.07352461282986024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04365294233124507</v>
+      </c>
+      <c r="D75">
+        <v>-0.02605404734023429</v>
+      </c>
+      <c r="E75">
+        <v>0.01422480599955169</v>
+      </c>
+      <c r="F75">
+        <v>0.07932339716303458</v>
+      </c>
+      <c r="G75">
+        <v>-0.0117187237620083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1186112474473943</v>
+        <v>-0.1340067466117813</v>
       </c>
       <c r="C76">
-        <v>0.09895044276335113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06779491376302292</v>
+      </c>
+      <c r="D76">
+        <v>-0.05649535264411919</v>
+      </c>
+      <c r="E76">
+        <v>0.01008417604046252</v>
+      </c>
+      <c r="F76">
+        <v>0.07600258011512177</v>
+      </c>
+      <c r="G76">
+        <v>-0.01975095114974492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09097039083413777</v>
+        <v>-0.1017053383466948</v>
       </c>
       <c r="C77">
-        <v>0.06602192369073247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03340067279637306</v>
+      </c>
+      <c r="D77">
+        <v>-0.04588052938182253</v>
+      </c>
+      <c r="E77">
+        <v>-0.07210044590162058</v>
+      </c>
+      <c r="F77">
+        <v>0.2946084029276002</v>
+      </c>
+      <c r="G77">
+        <v>0.8815486552152325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08343422033396808</v>
+        <v>-0.09919648415666522</v>
       </c>
       <c r="C78">
-        <v>0.04507228992213706</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.02853641392539277</v>
+      </c>
+      <c r="D78">
+        <v>-0.07552511443548117</v>
+      </c>
+      <c r="E78">
+        <v>0.04078295675409251</v>
+      </c>
+      <c r="F78">
+        <v>-0.01017769854114472</v>
+      </c>
+      <c r="G78">
+        <v>0.02635208070073376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1344206874949946</v>
+        <v>-0.1511767052841813</v>
       </c>
       <c r="C79">
-        <v>0.101537440746725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06364798554055176</v>
+      </c>
+      <c r="D79">
+        <v>-0.02967095089991192</v>
+      </c>
+      <c r="E79">
+        <v>-0.0177906403702776</v>
+      </c>
+      <c r="F79">
+        <v>0.04487377000462061</v>
+      </c>
+      <c r="G79">
+        <v>-0.01909334031428161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04466497081234325</v>
+        <v>-0.03999772076610927</v>
       </c>
       <c r="C80">
-        <v>0.01790104708745499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005240772043270617</v>
+      </c>
+      <c r="D80">
+        <v>-0.02412350921821056</v>
+      </c>
+      <c r="E80">
+        <v>0.01387770125422733</v>
+      </c>
+      <c r="F80">
+        <v>-0.03180825326819283</v>
+      </c>
+      <c r="G80">
+        <v>-0.04238809784471129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1074129445402981</v>
+        <v>-0.1207280631682771</v>
       </c>
       <c r="C81">
-        <v>0.07999596712819286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0513733213878897</v>
+      </c>
+      <c r="D81">
+        <v>-0.03875764596783326</v>
+      </c>
+      <c r="E81">
+        <v>-0.002189438592234208</v>
+      </c>
+      <c r="F81">
+        <v>0.04570221690921537</v>
+      </c>
+      <c r="G81">
+        <v>-0.05456251124925488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1125973805611337</v>
+        <v>-0.1264960298393255</v>
       </c>
       <c r="C82">
-        <v>0.09494865641397505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06131757725441248</v>
+      </c>
+      <c r="D82">
+        <v>-0.04021222832065043</v>
+      </c>
+      <c r="E82">
+        <v>-0.02441920943302123</v>
+      </c>
+      <c r="F82">
+        <v>0.06284075346748504</v>
+      </c>
+      <c r="G82">
+        <v>-0.06225960751986161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0725017491999967</v>
+        <v>-0.07022926522307914</v>
       </c>
       <c r="C83">
-        <v>0.01765982961392963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003981848100313031</v>
+      </c>
+      <c r="D83">
+        <v>-0.04246874928570788</v>
+      </c>
+      <c r="E83">
+        <v>0.008391345830471252</v>
+      </c>
+      <c r="F83">
+        <v>-0.003864470808292173</v>
+      </c>
+      <c r="G83">
+        <v>-0.05916742576215765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02389645176471044</v>
+        <v>-0.03254151672011316</v>
       </c>
       <c r="C84">
-        <v>0.01914867283062316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01898957379821642</v>
+      </c>
+      <c r="D84">
+        <v>-0.01079872579069104</v>
+      </c>
+      <c r="E84">
+        <v>0.008069636203787542</v>
+      </c>
+      <c r="F84">
+        <v>-0.03730400020895958</v>
+      </c>
+      <c r="G84">
+        <v>-0.03468287254298078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1179944977211203</v>
+        <v>-0.1185886275291958</v>
       </c>
       <c r="C85">
-        <v>0.08027945697780135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04436959900591489</v>
+      </c>
+      <c r="D85">
+        <v>-0.03908157450114395</v>
+      </c>
+      <c r="E85">
+        <v>0.01154698111755324</v>
+      </c>
+      <c r="F85">
+        <v>0.09071554131916626</v>
+      </c>
+      <c r="G85">
+        <v>-0.004075467494377222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04443953073038994</v>
+        <v>-0.04653847613455697</v>
       </c>
       <c r="C86">
-        <v>0.02463103985678198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01111660300840095</v>
+      </c>
+      <c r="D86">
+        <v>-0.01547560719821852</v>
+      </c>
+      <c r="E86">
+        <v>0.04587331328596085</v>
+      </c>
+      <c r="F86">
+        <v>0.009405537896887303</v>
+      </c>
+      <c r="G86">
+        <v>0.004816898103098688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1114386536317951</v>
+        <v>-0.1188938841540408</v>
       </c>
       <c r="C87">
-        <v>0.08163852366233884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04771819461579828</v>
+      </c>
+      <c r="D87">
+        <v>-0.0752521079947942</v>
+      </c>
+      <c r="E87">
+        <v>0.006658305466472563</v>
+      </c>
+      <c r="F87">
+        <v>0.02703932865681328</v>
+      </c>
+      <c r="G87">
+        <v>0.09756423119310799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05249518552694865</v>
+        <v>-0.05669207211284609</v>
       </c>
       <c r="C88">
-        <v>0.0416491336151984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02532025330973258</v>
+      </c>
+      <c r="D88">
+        <v>-0.02588874022102852</v>
+      </c>
+      <c r="E88">
+        <v>0.02347235376083957</v>
+      </c>
+      <c r="F88">
+        <v>0.007698462287428039</v>
+      </c>
+      <c r="G88">
+        <v>0.009629656685606121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07629181531971325</v>
+        <v>-0.106275160130756</v>
       </c>
       <c r="C89">
-        <v>0.08328772203767332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07833599319740306</v>
+      </c>
+      <c r="D89">
+        <v>0.3214109106987233</v>
+      </c>
+      <c r="E89">
+        <v>0.09150804795453636</v>
+      </c>
+      <c r="F89">
+        <v>0.05417043638934506</v>
+      </c>
+      <c r="G89">
+        <v>-0.007239287249122459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07185521714519325</v>
+        <v>-0.09365185532064467</v>
       </c>
       <c r="C90">
-        <v>0.07421989917383555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06866147734166621</v>
+      </c>
+      <c r="D90">
+        <v>0.3121586029340814</v>
+      </c>
+      <c r="E90">
+        <v>0.08123051918422386</v>
+      </c>
+      <c r="F90">
+        <v>-0.02037192071824121</v>
+      </c>
+      <c r="G90">
+        <v>-0.0261934401747158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0807732649561537</v>
+        <v>-0.09051051219501689</v>
       </c>
       <c r="C91">
-        <v>0.06657154243519295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04372242789253324</v>
+      </c>
+      <c r="D91">
+        <v>-0.02919270486991729</v>
+      </c>
+      <c r="E91">
+        <v>0.005284684839350101</v>
+      </c>
+      <c r="F91">
+        <v>0.01783731327134558</v>
+      </c>
+      <c r="G91">
+        <v>-0.03703501991502157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08510188140739917</v>
+        <v>-0.1057069208314974</v>
       </c>
       <c r="C92">
-        <v>0.06591090913049934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06132992760687814</v>
+      </c>
+      <c r="D92">
+        <v>0.3286304003978999</v>
+      </c>
+      <c r="E92">
+        <v>0.03360209182435502</v>
+      </c>
+      <c r="F92">
+        <v>0.03067448959306431</v>
+      </c>
+      <c r="G92">
+        <v>0.02448537200433968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06268157511610987</v>
+        <v>-0.08604842176941574</v>
       </c>
       <c r="C93">
-        <v>0.06680635680464875</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06459537892535921</v>
+      </c>
+      <c r="D93">
+        <v>0.3002132587056539</v>
+      </c>
+      <c r="E93">
+        <v>0.05076470193589313</v>
+      </c>
+      <c r="F93">
+        <v>0.03650220890389033</v>
+      </c>
+      <c r="G93">
+        <v>0.0163717887839444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1278727162120541</v>
+        <v>-0.1296580439862703</v>
       </c>
       <c r="C94">
-        <v>0.08196703050806044</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.04068857661639846</v>
+      </c>
+      <c r="D94">
+        <v>-0.05521030215447521</v>
+      </c>
+      <c r="E94">
+        <v>-0.02601849756302606</v>
+      </c>
+      <c r="F94">
+        <v>0.05351911880164229</v>
+      </c>
+      <c r="G94">
+        <v>-0.0421281379095244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.114050072738504</v>
+        <v>-0.1202162251452389</v>
       </c>
       <c r="C95">
-        <v>0.05500854156174878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02698999357974971</v>
+      </c>
+      <c r="D95">
+        <v>-0.05985119850704607</v>
+      </c>
+      <c r="E95">
+        <v>-0.01491088809730225</v>
+      </c>
+      <c r="F95">
+        <v>0.02717287815296357</v>
+      </c>
+      <c r="G95">
+        <v>0.008184680704631592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.185864301708606</v>
+        <v>-0.2233173246834295</v>
       </c>
       <c r="C97">
-        <v>0.07548329672891568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04248386168713637</v>
+      </c>
+      <c r="D97">
+        <v>0.01413816275697594</v>
+      </c>
+      <c r="E97">
+        <v>-0.2335918762250994</v>
+      </c>
+      <c r="F97">
+        <v>-0.8595123267423608</v>
+      </c>
+      <c r="G97">
+        <v>0.2312105104892253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2379120760721271</v>
+        <v>-0.2578210062508104</v>
       </c>
       <c r="C98">
-        <v>0.1226010137256213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06254520142712125</v>
+      </c>
+      <c r="D98">
+        <v>-0.03433250842621893</v>
+      </c>
+      <c r="E98">
+        <v>-0.1479937624022379</v>
+      </c>
+      <c r="F98">
+        <v>-0.004941584596893048</v>
+      </c>
+      <c r="G98">
+        <v>-0.2472792283070046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5627885754338077</v>
+        <v>-0.3670259102470897</v>
       </c>
       <c r="C99">
-        <v>-0.8171056206347709</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9202113823615832</v>
+      </c>
+      <c r="D99">
+        <v>0.0694833242161913</v>
+      </c>
+      <c r="E99">
+        <v>0.04479333664015066</v>
+      </c>
+      <c r="F99">
+        <v>0.03756461302310603</v>
+      </c>
+      <c r="G99">
+        <v>-0.002952657396579303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03621493913741659</v>
+        <v>-0.04222003480527321</v>
       </c>
       <c r="C101">
-        <v>0.03149261801189875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.0243921517604502</v>
+      </c>
+      <c r="D101">
+        <v>-0.009909312434718235</v>
+      </c>
+      <c r="E101">
+        <v>0.04570613018259551</v>
+      </c>
+      <c r="F101">
+        <v>0.009792618042031262</v>
+      </c>
+      <c r="G101">
+        <v>-0.004026360319286546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
